--- a/income_reject_rules.xlsx
+++ b/income_reject_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RULE5</t>
+          <t>RULE8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'education': 'Bachelor Degree'}</t>
+          <t>{'occupation': 'Finance/Accounting'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0578125</v>
+        <v>0.005859375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4754901960784313</v>
+        <v>0.5623529411764705</v>
       </c>
       <c r="H2" t="n">
-        <v>6.119442668987125e-10</v>
+        <v>0.009858881063389511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RULE8</t>
+          <t>RULE9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor'}</t>
+          <t>{'occupation': 'Healthcare/Medical Services'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02734375</v>
+        <v>0.01015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.958904109589041</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3015614522463838</v>
+        <v>0.5082918739635157</v>
       </c>
       <c r="H3" t="n">
-        <v>7.901567572689103e-06</v>
+        <v>6.675037650728794e-06</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'occupation': 'Finance/Accounting'}</t>
+          <t>{'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00625</v>
+        <v>0.048828125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5811764705882353</v>
+        <v>0.2754217321647347</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004487750570438701</v>
+        <v>0.0001617548271964061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RULE11</t>
+          <t>RULE28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'age': '30-39', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -599,22 +599,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0109375</v>
+        <v>0.0125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5439469320066335</v>
+        <v>0.5304878048780488</v>
       </c>
       <c r="H5" t="n">
-        <v>9.628908922633041e-07</v>
+        <v>0.0006768790358519589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RULE12</t>
+          <t>RULE38</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'occupation': 'Management/Business'}</t>
+          <t>{'age': '40-49', 'education': 'Associate Degree'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.051953125</v>
+        <v>0.00703125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2866365092828197</v>
+        <v>0.5610389610389611</v>
       </c>
       <c r="H6" t="n">
-        <v>2.578514162970424e-05</v>
+        <v>0.005917229958978092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RULE14</t>
+          <t>RULE43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'workinghours': 'More than 50'}</t>
+          <t>{'age': '40-49', 'workclass': 'governmental'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.080078125</v>
+        <v>0.012109375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7068965517241379</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3113741636644364</v>
+        <v>0.5101959216313474</v>
       </c>
       <c r="H7" t="n">
-        <v>3.474616526134548e-05</v>
+        <v>0.001114293593604418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RULE34</t>
+          <t>RULE52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'education': 'Bachelor Degree', 'age': '30-39'}</t>
+          <t>{'education': 'Bachelor Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0125</v>
+        <v>0.01484375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5638211382113821</v>
+        <v>0.5183946488294314</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000562506676431934</v>
+        <v>0.001467892968353924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RULE36</t>
+          <t>RULE57</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor', 'age': '30-39'}</t>
+          <t>{'workinghours': 'More than 50', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0078125</v>
+        <v>0.02734375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3577863577863577</v>
+        <v>0.4786585365853658</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009569514532558564</v>
+        <v>0.0002523860457981573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RULE38</t>
+          <t>RULE86</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'occupation': 'Management/Business', 'age': '30-39'}</t>
+          <t>{'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.008593750000000001</v>
+        <v>0.045703125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.785234899328859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.5895827254158156</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003867883931244019</v>
+        <v>3.333585416333649e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RULE47</t>
+          <t>RULE90</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'education': 'Associate Degree'}</t>
+          <t>{'education': 'Bachelor Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.007421875</v>
+        <v>0.040625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6350649350649351</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002546172458510151</v>
+        <v>2.717151915714608e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RULE48</t>
+          <t>RULE91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'education': 'Bachelor Degree'}</t>
+          <t>{'education': 'Bachelor Degree', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01171875</v>
+        <v>0.034765625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
+        <v>0.712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4234693877551021</v>
+        <v>0.4410322580645161</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006192418661882524</v>
+        <v>2.340664291045473e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RULE51</t>
+          <t>RULE92</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'education': 'Bachelor Degree', 'workinghours': 'More than 50'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0046875</v>
+        <v>0.017578125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6072874493927126</v>
+        <v>0.5017482517482518</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002880138200521794</v>
+        <v>0.003724848681383415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RULE54</t>
+          <t>RULE132</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'workclass': 'governmental'}</t>
+          <t>{'occupation': 'Finance/Accounting', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01328125</v>
+        <v>0.005078125</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8292682926829268</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5505797680927629</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002096830936727965</v>
+        <v>0.005551635982287666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULE61</t>
+          <t>RULE133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'education': 'Bachelor Degree', 'age': '50-59'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Healthcare/Medical Services'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01484375</v>
+        <v>0.008593750000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4158305462653289</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003746396510138088</v>
+        <v>0.000251998104016752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RULE63</t>
+          <t>RULE134</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'marital status': 'Married', 'age': '50-59'}</t>
+          <t>{'occupation': 'Management/Business', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.051171875</v>
+        <v>0.041015625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7359550561797753</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4786735027817171</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H16" t="n">
-        <v>3.959424967783127e-09</v>
+        <v>0.00096519156910001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RULE65</t>
+          <t>RULE135</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'occupation': 'Repair/Maintenance', 'age': '50-59'}</t>
+          <t>{'occupation': 'Science, Engineering, Technology', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.006640625</v>
+        <v>0.021484375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.442652329749104</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.004240983393918411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RULE68</t>
+          <t>RULE136</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'age': '50-59', 'workinghours': 'More than 50'}</t>
+          <t>{'workinghours': 'More than 50', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.027734375</v>
+        <v>0.063671875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8658536585365854</v>
+        <v>0.7244444444444444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4158536585365853</v>
+        <v>0.2606763285024155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0003889491263584177</v>
+        <v>0.004334109715496638</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RULE72</t>
+          <t>RULE138</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '60-69'}</t>
+          <t>{'occupation': 'Education', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.008593750000000001</v>
+        <v>0.004296875</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5412293853073463</v>
+        <v>0.5989010989010989</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004114346279778402</v>
+        <v>0.0004653457397334061</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RULE73</t>
+          <t>RULE142</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'age': '60-69', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.031640625</v>
+        <v>0.033203125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.456427955133736</v>
+        <v>0.3982851893436766</v>
       </c>
       <c r="H20" t="n">
-        <v>1.505274853548217e-05</v>
+        <v>8.511930003302992e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RULE75</t>
+          <t>RULE145</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'age': '60-69', 'workclass': 'governmental'}</t>
+          <t>{'workinghours': 'More than 50', 'occupation': 'Repair/Maintenance'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,22 +1143,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.005078125</v>
+        <v>0.00625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6094224924012158</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001249277581924976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RULE98</t>
+          <t>RULE204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'age': '30-39', 'marital status': 'Married', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.048828125</v>
+        <v>0.009375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6360276237720066</v>
+        <v>0.5656814449917897</v>
       </c>
       <c r="H22" t="n">
-        <v>1.077755222804635e-09</v>
+        <v>0.001886687015516786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RULE103</t>
+          <t>RULE206</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'education': 'Bachelor Degree', 'workclass': 'private'}</t>
+          <t>{'age': '30-39', 'education': 'Bachelor Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.043359375</v>
+        <v>0.0109375</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4564007421150278</v>
+        <v>0.5158371040723981</v>
       </c>
       <c r="H23" t="n">
-        <v>1.88418338337688e-07</v>
+        <v>0.00266526894498736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RULE104</t>
+          <t>RULE207</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'education': 'Bachelor Degree'}</t>
+          <t>{'age': '30-39', 'workinghours': '40-49', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1245,22 +1245,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.03671875</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.752</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4745806451612903</v>
+        <v>0.5057971014492755</v>
       </c>
       <c r="H24" t="n">
-        <v>2.512483178018719e-07</v>
+        <v>0.004377370560409028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RULE120</t>
+          <t>RULE223</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'marital status': 'Married', 'education': 'Associate Degree'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0234375</v>
+        <v>0.00703125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3322279167922823</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1.210239838083003e-05</v>
+        <v>0.00910901968235462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RULE124</t>
+          <t>RULE232</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'education': 'Master or other Degree Beyond Bachelor'}</t>
+          <t>{'age': '40-49', 'marital status': 'Married', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.008984374999999999</v>
+        <v>0.0109375</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G26" t="n">
-        <v>0.288135593220339</v>
+        <v>0.3339382940108894</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006142627697234347</v>
+        <v>0.009404165268940522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RULE125</t>
+          <t>RULE234</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor', 'workclass': 'private'}</t>
+          <t>{'age': '40-49', 'workclass': 'governmental', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0140625</v>
+        <v>0.011328125</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.5273735273735274</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0003391276591529233</v>
+        <v>0.004012599954690842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RULE129</t>
+          <t>RULE236</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Repair/Maintenance'}</t>
+          <t>{'age': '40-49', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.005078125</v>
+        <v>0.0078125</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.003389400698235266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RULE131</t>
+          <t>RULE240</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'governmental'}</t>
+          <t>{'age': '40-49', 'workclass': 'governmental', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1415,22 +1415,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.0109375</v>
+        <v>0.00703125</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6351471900089205</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003085940718766316</v>
+        <v>0.00321973269092177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RULE132</t>
+          <t>RULE251</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'education': 'Bachelor Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.024609375</v>
+        <v>0.0125</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7159090909090909</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5159090909090909</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008924331408142012</v>
+        <v>0.005704865584395912</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RULE149</t>
+          <t>RULE254</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'marital status': 'Married', 'occupation': 'Finance/Accounting'}</t>
+          <t>{'workinghours': '40-49', 'education': 'Bachelor Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.005078125</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005414466777460568</v>
+        <v>0.006120840996528083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RULE150</t>
+          <t>RULE264</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'occupation': 'Healthcare/Medical Services', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,22 +1517,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.009765625</v>
+        <v>0.0140625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.75</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.569672131147541</v>
       </c>
       <c r="H32" t="n">
-        <v>3.501255328412518e-06</v>
+        <v>0.0008410629817869466</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RULE151</t>
+          <t>RULE266</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'occupation': 'Management/Business', 'marital status': 'Married'}</t>
+          <t>{'workinghours': '40-49', 'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.0453125</v>
+        <v>0.009375</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3362193362193362</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H33" t="n">
-        <v>2.288662531023841e-06</v>
+        <v>0.005435482813865829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RULE153</t>
+          <t>RULE271</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'occupation': 'Science, Engineering, Technology', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'governmental', 'marital status': 'Married', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.022265625</v>
+        <v>0.008203125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3637992831541218</v>
+        <v>0.5323076923076923</v>
       </c>
       <c r="H34" t="n">
-        <v>0.004022945388350186</v>
+        <v>0.003246363980957424</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RULE154</t>
+          <t>RULE272</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'marital status': 'Married', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.06953125</v>
+        <v>0.03359375</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7911111111111111</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="G35" t="n">
-        <v>0.25487922705314</v>
+        <v>0.4919871794871795</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001461121977862378</v>
+        <v>8.622891411623083e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RULE155</t>
+          <t>RULE273</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'marital status': 'Separated', 'workclass': 'governmental'}</t>
+          <t>{'workinghours': 'More than 50', 'marital status': 'Married', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.005859375</v>
+        <v>0.02265625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="G36" t="n">
-        <v>0.521181001283697</v>
+        <v>0.3790412486064659</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008060359651930487</v>
+        <v>0.006643001652940714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RULE158</t>
+          <t>RULE281</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'workinghours': 'More than 50', 'workclass': 'private', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.00703125</v>
+        <v>0.01796875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G37" t="n">
-        <v>0.553558416322565</v>
+        <v>0.5742705570291777</v>
       </c>
       <c r="H37" t="n">
-        <v>1.666135827202989e-05</v>
+        <v>0.0007386031052832793</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RULE160</t>
+          <t>RULE294</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'occupation': 'Management/Business'}</t>
+          <t>{'marital status': 'Married', 'education': 'Bachelor Degree', 'age': 'Older than 70'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.008593750000000001</v>
+        <v>0.004296875</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H38" t="n">
-        <v>0.007437905159421279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RULE161</t>
+          <t>RULE323</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'occupation': 'Management/Business', 'workclass': 'private'}</t>
+          <t>{'marital status': 'Married', 'education': 'Associate Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.03515625</v>
+        <v>0.013671875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G39" t="n">
-        <v>0.375625191385118</v>
+        <v>0.5935672514619883</v>
       </c>
       <c r="H39" t="n">
-        <v>2.878070578936589e-06</v>
+        <v>0.0001314300330634767</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RULE162</t>
+          <t>RULE329</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'occupation': 'Management/Business'}</t>
+          <t>{'occupation': 'Science, Engineering, Technology', 'marital status': 'Married', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.025390625</v>
+        <v>0.009375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8552631578947368</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.216708941027267</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007435810578374978</v>
+        <v>0.00743016915849026</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RULE164</t>
+          <t>RULE330</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'occupation': 'Repair/Maintenance', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'education': 'Bachelor Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.006640625</v>
+        <v>0.034375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.5081481481481481</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>8.921597324966385e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RULE170</t>
+          <t>RULE332</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '40-49', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.05625</v>
+        <v>0.028125</v>
       </c>
       <c r="F42" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3463736263736263</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001935095120563421</v>
+        <v>4.98001551015891e-06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RULE225</t>
+          <t>RULE334</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'age': '30-39', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'education': 'Bachelor Degree', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.008984374999999999</v>
+        <v>0.014453125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6264367816091955</v>
+        <v>0.3597826086956523</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003304555300983382</v>
+        <v>0.005824967875107319</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RULE227</t>
+          <t>RULE340</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'age': '30-39', 'workclass': 'private', 'education': 'Bachelor Degree'}</t>
+          <t>{'workinghours': 'More than 50', 'education': 'Bachelor Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1925,22 +1925,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.010546875</v>
+        <v>0.014453125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4864253393665158</v>
+        <v>0.4704545454545455</v>
       </c>
       <c r="H44" t="n">
-        <v>0.004944081838137528</v>
+        <v>0.00959702788195207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RULE228</t>
+          <t>RULE377</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'age': '30-39', 'education': 'Bachelor Degree'}</t>
+          <t>{'workclass': 'governmental', 'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.009375</v>
+        <v>0.0078125</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6043478260869566</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.001811835515972272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RULE233</t>
+          <t>RULE399</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor', 'age': '30-39', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Education', 'marital status': 'Married', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.00703125</v>
+        <v>0.004296875</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G46" t="n">
-        <v>0.428849902534113</v>
+        <v>0.6364764267990074</v>
       </c>
       <c r="H46" t="n">
-        <v>0.008910525338164591</v>
+        <v>0.000866762247029411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RULE237</t>
+          <t>RULE400</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'occupation': 'Science, Engineering, Technology', 'age': '30-39', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'occupation': 'Healthcare/Medical Services'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.00703125</v>
+        <v>0.005859375</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.5049019607843137</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.0009906067239827522</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RULE238</t>
+          <t>RULE403</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'age': '30-39', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.008203125</v>
+        <v>0.027734375</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.8987341772151899</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3733104484016305</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002665396668467555</v>
+        <v>7.841668113386397e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RULE253</t>
+          <t>RULE404</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'education': 'Associate Degree', 'age': '40-49', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '40-49', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2095,22 +2095,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.00703125</v>
+        <v>0.020703125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6142857142857143</v>
+        <v>0.2835775335775336</v>
       </c>
       <c r="H49" t="n">
-        <v>0.008168390195998847</v>
+        <v>0.006644365653519314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RULE254</t>
+          <t>RULE412</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'education': 'Associate Degree', 'age': '40-49'}</t>
+          <t>{'workinghours': 'More than 50', 'marital status': 'Married', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.005078125</v>
+        <v>0.047265625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7756410256410257</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6369047619047619</v>
+        <v>0.3570363744782349</v>
       </c>
       <c r="H50" t="n">
-        <v>0.006510450238499551</v>
+        <v>0.002072307078484498</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RULE255</t>
+          <t>RULE415</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'workinghours': '40-49', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.010546875</v>
+        <v>0.015234375</v>
       </c>
       <c r="F51" t="n">
-        <v>0.84375</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5625</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00321973269092177</v>
+        <v>0.009224053460530054</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RULE267</t>
+          <t>RULE416</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'marital status': 'Married', 'age': '40-49', 'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'workinghours': 'More than 50', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.0046875</v>
+        <v>0.01640625</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0.006989016826744686</v>
+        <v>0.004667588452687872</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RULE268</t>
+          <t>RULE417</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'age': '40-49', 'occupation': 'Management/Business', 'marital status': 'Married'}</t>
+          <t>{'workinghours': 'More than 50', 'workclass': 'private', 'occupation': 'Repair/Maintenance'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2231,1188 +2231,1188 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.0109375</v>
+        <v>0.00546875</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4392014519056262</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H53" t="n">
-        <v>0.003328775820349815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RULE270</t>
+          <t>RULE526</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'age': '40-49', 'marital status': 'Married'}</t>
+          <t>{'workinghours': 'More than 50', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.012109375</v>
+        <v>0.003515625</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.565929565929566</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001985078076990015</v>
+        <v>0.001313543541160129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RULE272</t>
+          <t>RULE570</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '40-49', 'occupation': 'Management/Business'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workinghours': 'More than 50'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.0078125</v>
+        <v>0.005078125</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.4352380952380953</v>
       </c>
       <c r="H55" t="n">
-        <v>0.003389400698235266</v>
+        <v>0.006513585123113138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RULE283</t>
+          <t>RULE673</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'age': '50-59', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'workinghours': 'More than 50', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.0125</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4975845410628019</v>
+        <v>0.3961568833903659</v>
       </c>
       <c r="H56" t="n">
-        <v>0.004181363403586445</v>
+        <v>0.0005269071545063104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RULE296</t>
+          <t>RULE799</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '50-59', 'marital status': 'Married'}</t>
+          <t>{'workinghours': 'More than 50', 'workclass': 'private', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.015234375</v>
+        <v>0.002734375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6649590163934427</v>
+        <v>0.6147260273972603</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002921424824972932</v>
+        <v>0.002900512562975007</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RULE298</t>
+          <t>RULE907</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'age': '50-59'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workinghours': 'More than 50', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.01171875</v>
+        <v>0.005078125</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7317073170731707</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5183739837398373</v>
+        <v>0.52</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0006191961512182628</v>
+        <v>0.002161217353124853</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RULE301</t>
+          <t>RULE1042</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'age': '50-59', 'occupation': 'Repair/Maintenance', 'marital status': 'Married'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.005859375</v>
+        <v>0.31171875</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8295218295218295</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.1693215792089384</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>6.901205593913972e-16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RULE305</t>
+          <t>RULE1045</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '50-59', 'marital status': 'Married'}</t>
+          <t>{'education': 'Associate Degree'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.0359375</v>
+        <v>0.040625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.8455284552845529</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5571581196581197</v>
+        <v>0.2441298538859515</v>
       </c>
       <c r="H60" t="n">
-        <v>3.87287628470382e-08</v>
+        <v>0.0002091259800137611</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RULE306</t>
+          <t>RULE1047</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'age': '50-59', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.02578125</v>
+        <v>0.07851562500000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3931845701435738</v>
+        <v>0.1251864280387771</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0001110976777285466</v>
+        <v>8.129418608136017e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RULE307</t>
+          <t>RULE1048</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'age': '50-59', 'marital status': 'Married', 'workinghours': 'More than 50'}</t>
+          <t>{'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.025</v>
+        <v>0.10078125</v>
       </c>
       <c r="F62" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3890746934225195</v>
+        <v>0.2150455927051671</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0005811511028360313</v>
+        <v>2.532762544202282e-10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RULE312</t>
+          <t>RULE1051</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '50-59', 'occupation': 'Repair/Maintenance'}</t>
+          <t>{'marital status': 'Separated'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.00546875</v>
+        <v>0.049609375</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8758620689655172</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.160222258538977</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.001294716452775393</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RULE316</t>
+          <t>RULE1054</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '50-59', 'workinghours': 'More than 50'}</t>
+          <t>{'occupation': 'Office/Administrative Support'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.018359375</v>
+        <v>0.068359375</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5245358090185677</v>
+        <v>0.101889338731444</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0005145413788005987</v>
+        <v>0.002555787165071242</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RULE325</t>
+          <t>RULE1055</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '60-69', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.00703125</v>
+        <v>0.045703125</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7148148148148148</v>
+        <v>0.2263225806451613</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004674480214913456</v>
+        <v>1.35999905498573e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RULE326</t>
+          <t>RULE1057</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'age': '60-69'}</t>
+          <t>{'occupation': 'Transport'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.006640625</v>
+        <v>0.0125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5367965367965368</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="H66" t="n">
-        <v>0.009157050977117864</v>
+        <v>0.003964236851167165</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RULE329</t>
+          <t>RULE1058</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '60-69', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.02265625</v>
+        <v>0.234765625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7341772151898734</v>
+        <v>0.8429172510518934</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5146650200679223</v>
+        <v>0.1550511422652825</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0001329084069071904</v>
+        <v>3.241736951400534e-11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RULE335</t>
+          <t>RULE1077</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 70', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'age': '30-39', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.005078125</v>
+        <v>0.016015625</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.2272978959025471</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.004645387119042731</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RULE366</t>
+          <t>RULE1084</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'education': 'Associate Degree', 'marital status': 'Married'}</t>
+          <t>{'age': '30-39', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.014453125</v>
+        <v>0.03984375</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5722222222222222</v>
+        <v>0.1446593237704918</v>
       </c>
       <c r="H69" t="n">
-        <v>4.779684759609392e-05</v>
+        <v>0.008128372252307619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RULE372</t>
+          <t>RULE1086</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'occupation': 'Science, Engineering, Technology', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'age': '40-49'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.009375</v>
+        <v>0.012890625</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
-        <v>0.009943792331683696</v>
+        <v>0.007431839796871122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RULE373</t>
+          <t>RULE1087</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.037109375</v>
+        <v>0.01484375</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6396296296296297</v>
+        <v>0.3400560224089636</v>
       </c>
       <c r="H71" t="n">
-        <v>3.059122657738213e-07</v>
+        <v>0.0008096601516018154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RULE375</t>
+          <t>RULE1094</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'education': 'Associate Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.0296875</v>
+        <v>0.01015625</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>0.4553752535496958</v>
       </c>
       <c r="H72" t="n">
-        <v>6.480221783652746e-07</v>
+        <v>0.003218111812927818</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RULE385</t>
+          <t>RULE1097</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'workclass': 'private', 'education': 'Bachelor Degree'}</t>
+          <t>{'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.026171875</v>
+        <v>0.023046875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7362637362637363</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3964579110210179</v>
+        <v>0.445814406229721</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0001406962431265144</v>
+        <v>7.105029851744118e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RULE388</t>
+          <t>RULE1098</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'occupation': 'Management/Business', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Office/Administrative Support', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.005859375</v>
+        <v>0.019140625</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2607843137254903</v>
       </c>
       <c r="H74" t="n">
-        <v>0.009473542793839537</v>
+        <v>0.006497654132709528</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RULE389</t>
+          <t>RULE1099</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'occupation': 'Repair/Maintenance', 'marital status': 'Married'}</t>
+          <t>{'age': '50-59', 'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.007421875</v>
+        <v>0.01015625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.002340288995412077</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RULE418</t>
+          <t>RULE1104</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'education': 'Master or other Degree Beyond Bachelor', 'marital status': 'Married'}</t>
+          <t>{'education': 'Bachelor Degree', 'age': '60-69'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.0078125</v>
+        <v>0.005078125</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.5416666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00965598349582503</v>
+        <v>0.005673343023278461</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RULE419</t>
+          <t>RULE1105</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'education': 'Master or other Degree Beyond Bachelor', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'age': '60-69'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.01171875</v>
+        <v>0.01484375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.967741935483871</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4160177975528365</v>
+        <v>0.2753141167775315</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0003695375344034511</v>
+        <v>0.003937252716558455</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RULE434</t>
+          <t>RULE1133</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Management/Business', 'workinghours': 'More than 50'}</t>
+          <t>{'education': 'Associate Degree', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.00546875</v>
+        <v>0.023046875</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.3972509757339216</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.0001116419239930548</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RULE437</t>
+          <t>RULE1140</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'governmental', 'workinghours': 'More than 50'}</t>
+          <t>{'education': 'Associate Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.005078125</v>
+        <v>0.0328125</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8316831683168316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.237088573722237</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.001531613041791959</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RULE461</t>
+          <t>RULE1142</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'marital status': 'Married', 'workclass': 'private', 'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'education': 'Bachelor Degree', 'occupation': 'Education'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.00703125</v>
+        <v>0.01640625</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6549019607843137</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="H80" t="n">
-        <v>9.221749862423618e-06</v>
+        <v>0.0005654752862440874</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RULE464</t>
+          <t>RULE1147</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'occupation': 'Management/Business', 'marital status': 'Married'}</t>
+          <t>{'education': 'Bachelor Degree', 'workclass': 'governmental'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.0296875</v>
+        <v>0.0171875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9620253164556962</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4027032825573912</v>
+        <v>0.4144310823311749</v>
       </c>
       <c r="H81" t="n">
-        <v>2.122929774111914e-06</v>
+        <v>0.0002298417236804567</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RULE466</t>
+          <t>RULE1148</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'occupation': 'Management/Business', 'marital status': 'Married'}</t>
+          <t>{'education': 'Bachelor Degree', 'workclass': 'self employed'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.02265625</v>
+        <v>0.005859375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9375</v>
       </c>
       <c r="G82" t="n">
-        <v>0.286019536019536</v>
+        <v>0.5237068965517242</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001247109193363975</v>
+        <v>0.005776992909904782</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RULE474</t>
+          <t>RULE1149</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'occupation': 'Science, Engineering, Technology', 'marital status': 'Married'}</t>
+          <t>{'education': 'Bachelor Degree', 'workinghours': '20-39'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.01640625</v>
+        <v>0.01328125</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3295454545454546</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005866792258442758</v>
+        <v>0.004214431412307218</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RULE477</t>
+          <t>RULE1151</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'workclass': 'governmental', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.01796875</v>
+        <v>0.046875</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4294314381270903</v>
+        <v>0.2505105513955072</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0001667770249222038</v>
+        <v>1.355240710944545e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RULE479</t>
+          <t>RULE1158</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'marital status': 'Married', 'workinghours': 'More than 50'}</t>
+          <t>{'education': 'High School or GED Diploma', 'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.051171875</v>
+        <v>0.016015625</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8397435897435898</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="G85" t="n">
-        <v>0.351371496720334</v>
+        <v>0.2444831591173054</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0004324744621068353</v>
+        <v>0.003809165980688556</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RULE482</t>
+          <t>RULE1162</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'occupation': 'Management/Business', 'workinghours': 'More than 50'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.016796875</v>
+        <v>0.064453125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3841269841269842</v>
+        <v>0.1012995997430449</v>
       </c>
       <c r="H86" t="n">
-        <v>0.003568196877674788</v>
+        <v>0.002413435680157637</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RULE483</t>
+          <t>RULE1169</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'occupation': 'Repair/Maintenance', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'income': 'high'}</t>
+          <t>{'income': 'low'}</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.005859375</v>
+        <v>0.050390625</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.3743713296190333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>5.435285565283465e-10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RULE518</t>
+          <t>RULE1171</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'marital status': 'Separated', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3421,32 +3421,32 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.072265625</v>
+        <v>0.01953125</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7905982905982906</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09154412034893544</v>
+        <v>0.3089635854341737</v>
       </c>
       <c r="H88" t="n">
-        <v>0.009505248692771789</v>
+        <v>0.0001368884219061214</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RULE533</t>
+          <t>RULE1177</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'workclass': 'private'}</t>
+          <t>{'workclass': 'governmental', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3455,32 +3455,32 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.059375</v>
+        <v>0.01328125</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1045092303036417</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H89" t="n">
-        <v>0.006050826830390512</v>
+        <v>4.637370931267551e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RULE623</t>
+          <t>RULE1178</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'workinghours': 'More than 50'}</t>
+          <t>{'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3489,32 +3489,32 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.005078125</v>
+        <v>0.078125</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.91324200913242</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4219047619047619</v>
+        <v>0.1752740946939174</v>
       </c>
       <c r="H90" t="n">
-        <v>0.007939265587791964</v>
+        <v>2.107017211576407e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RULE636</t>
+          <t>RULE1181</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Transport'}</t>
+          <t>{'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3523,32 +3523,32 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.00546875</v>
+        <v>0.045703125</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0.8931297709923665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.2102029417240737</v>
       </c>
       <c r="H91" t="n">
-        <v>0.005705932385829616</v>
+        <v>4.817068134566385e-05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RULE665</t>
+          <t>RULE1183</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'occupation': 'Transport', 'marital status': 'Married'}</t>
+          <t>{'workinghours': 'More than 50', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3560,29 +3560,29 @@
         <v>0.00703125</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3516237402015677</v>
+        <v>0.4257703081232492</v>
       </c>
       <c r="H92" t="n">
-        <v>0.006338236993816607</v>
+        <v>0.002337717688422843</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RULE709</t>
+          <t>RULE1192</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'occupation': 'Transport', 'workclass': 'private'}</t>
+          <t>{'occupation': 'Office/Administrative Support', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3591,32 +3591,32 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.014453125</v>
+        <v>0.04609375</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.959349593495935</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1897810218978102</v>
+        <v>0.1676829268292683</v>
       </c>
       <c r="H93" t="n">
-        <v>0.005043452749619772</v>
+        <v>0.001483185661386206</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RULE956</t>
+          <t>RULE1193</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'education': 'High School or GED Diploma', 'workinghours': 'More than 50'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3625,32 +3625,32 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.005078125</v>
+        <v>0.0203125</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.48</v>
+        <v>0.4347442680776015</v>
       </c>
       <c r="H94" t="n">
-        <v>0.003616076289573519</v>
+        <v>1.075487269963554e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RULE970</t>
+          <t>RULE1195</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Transport', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Transport', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3659,32 +3659,32 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.003125</v>
+        <v>0.00703125</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="H95" t="n">
-        <v>0.004012301348246019</v>
+        <v>0.00302807637403856</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RULE991</t>
+          <t>RULE1215</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'occupation': 'Transport'}</t>
+          <t>{'workinghours': 'More than 50', 'marital status': 'Separated'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3693,32 +3693,32 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.00546875</v>
+        <v>0.0046875</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="H96" t="n">
-        <v>0.009958087739551263</v>
+        <v>0.001589365971024593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RULE1036</t>
+          <t>RULE1218</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>{'sex': 'Male', 'race': 'Black or African American alone'}</t>
+          <t>{'sex': 'Female', 'race': 'White alone'}</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'occupation': 'Transport', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Education', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.006640625</v>
+        <v>0.0234375</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3623188405797102</v>
+        <v>0.3450704225352113</v>
       </c>
       <c r="H97" t="n">
-        <v>0.005204605599588416</v>
+        <v>0.004510517445867906</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RULE1084</t>
+          <t>RULE1221</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'occupation': 'Office/Administrative Support', 'workclass': 'governmental'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3761,22 +3761,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.3078125</v>
+        <v>0.012890625</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8191268191268192</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1789516001030395</v>
+        <v>0.292016806722689</v>
       </c>
       <c r="H98" t="n">
-        <v>1.051374738052137e-16</v>
+        <v>0.005834205565240472</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RULE1086</t>
+          <t>RULE1224</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{'age': '30-39'}</t>
+          <t>{'occupation': 'Office/Administrative Support', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3795,22 +3795,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.053125</v>
+        <v>0.041796875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8242424242424242</v>
+        <v>0.9727272727272728</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1501210184916255</v>
+        <v>0.141741357234315</v>
       </c>
       <c r="H99" t="n">
-        <v>0.002208504002362898</v>
+        <v>0.001521325520967993</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RULE1089</t>
+          <t>RULE1226</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma'}</t>
+          <t>{'workclass': 'private', 'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3829,22 +3829,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.080859375</v>
+        <v>0.039453125</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1238814317673378</v>
+        <v>0.2023607577042692</v>
       </c>
       <c r="H100" t="n">
-        <v>1.566736053083756e-05</v>
+        <v>0.000191344062532705</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RULE1090</t>
+          <t>RULE1243</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma'}</t>
+          <t>{'workinghours': '40-49', 'workclass': 'self employed'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3863,22 +3863,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.10234375</v>
+        <v>0.008203125</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2633738601823709</v>
+        <v>0.4360269360269361</v>
       </c>
       <c r="H101" t="n">
-        <v>6.487897153323478e-14</v>
+        <v>0.001599463986662604</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RULE1097</t>
+          <t>RULE1255</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support'}</t>
+          <t>{'marital status': 'Married', 'age': '25-29', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.015234375</v>
       </c>
       <c r="F102" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1512434933487565</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H102" t="n">
-        <v>4.174133877505198e-05</v>
+        <v>0.007758995725912742</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RULE1098</t>
+          <t>RULE1278</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{'occupation': 'Production/Assembly'}</t>
+          <t>{'age': '30-39', 'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3931,22 +3931,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.01328125</v>
+        <v>0.009765625</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2148846960167715</v>
+        <v>0.3136810279667422</v>
       </c>
       <c r="H103" t="n">
-        <v>0.008916558777430231</v>
+        <v>0.009587558620063415</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RULE1099</t>
+          <t>RULE1303</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales'}</t>
+          <t>{'age': '30-39', 'workinghours': 'More than 50', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3965,22 +3965,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.04609375</v>
+        <v>0.004296875</v>
       </c>
       <c r="F104" t="n">
-        <v>0.944</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2472258064516129</v>
+        <v>0.4766666666666666</v>
       </c>
       <c r="H104" t="n">
-        <v>2.533303591041695e-06</v>
+        <v>0.009680757923537928</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RULE1102</t>
+          <t>RULE1307</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{'workclass': 'private'}</t>
+          <t>{'education': 'High School or GED Diploma', 'age': '40-49', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3999,22 +3999,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.232421875</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8345021037868162</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1642092167575275</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="H105" t="n">
-        <v>7.516658799458449e-12</v>
+        <v>0.008300248521910716</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RULE1122</t>
+          <t>RULE1312</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '30-39'}</t>
+          <t>{'age': '40-49', 'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4033,22 +4033,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.01640625</v>
+        <v>0.01015625</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2267441860465116</v>
+        <v>0.4893081761006289</v>
       </c>
       <c r="H106" t="n">
-        <v>0.002632349769857552</v>
+        <v>0.0009335810225733805</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RULE1129</t>
+          <t>RULE1316</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{'age': '30-39', 'workclass': 'private'}</t>
+          <t>{'age': '40-49', 'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.03984375</v>
+        <v>0.009375</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8360655737704918</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1485655737704918</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="H107" t="n">
-        <v>0.006797925690792374</v>
+        <v>0.008981622570517541</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RULE1134</t>
+          <t>RULE1332</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '40-49'}</t>
+          <t>{'age': '40-49', 'workclass': 'governmental', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4101,22 +4101,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.01640625</v>
+        <v>0.009375</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4941176470588236</v>
+        <v>0.4181184668989547</v>
       </c>
       <c r="H108" t="n">
-        <v>1.290837358388277e-06</v>
+        <v>0.006002667446869754</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RULE1142</t>
+          <t>RULE1334</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'age': '50-59'}</t>
+          <t>{'marital status': 'Married', 'education': 'Associate Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4135,22 +4135,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.02109375</v>
+        <v>0.00703125</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2379699248120301</v>
+        <v>0.6140350877192982</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0007515459957218063</v>
+        <v>0.003120654834415017</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RULE1144</t>
+          <t>RULE1336</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '50-59'}</t>
+          <t>{'education': 'Associate Degree', 'workclass': 'private', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4169,22 +4169,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.0234375</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4716093445814407</v>
+        <v>0.5142450142450142</v>
       </c>
       <c r="H110" t="n">
-        <v>2.243332817849787e-06</v>
+        <v>0.005097728084118159</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RULE1145</t>
+          <t>RULE1337</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'age': '50-59'}</t>
+          <t>{'workinghours': '20-39', 'education': 'Associate Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.019921875</v>
+        <v>0.00390625</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0003506282996620016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RULE1153</t>
+          <t>RULE1339</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'age': '60-69'}</t>
+          <t>{'marital status': 'Married', 'education': 'Bachelor Degree', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4237,22 +4237,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.013671875</v>
+        <v>0.00703125</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.7255639097744361</v>
       </c>
       <c r="H112" t="n">
-        <v>0.008794719029660567</v>
+        <v>0.003251936614656091</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RULE1160</t>
+          <t>RULE1345</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 70', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4271,22 +4271,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.006640625</v>
+        <v>0.015625</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5531400966183575</v>
+        <v>0.4962251201098147</v>
       </c>
       <c r="H113" t="n">
-        <v>0.001017815504318301</v>
+        <v>0.000160069018872593</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RULE1188</t>
+          <t>RULE1346</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'education': 'Bachelor Degree'}</t>
+          <t>{'age': '50-59', 'marital status': 'Separated', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4308,19 +4308,19 @@
         <v>0.00625</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.65359477124183</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
-        <v>0.002463441576873</v>
+        <v>0.009549796594842917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RULE1189</t>
+          <t>RULE1348</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'education': 'Bachelor Degree'}</t>
+          <t>{'workclass': 'private', 'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4339,22 +4339,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.016796875</v>
+        <v>0.018359375</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="G115" t="n">
-        <v>0.393154486586494</v>
+        <v>0.4348864994026284</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0005857076691101096</v>
+        <v>0.0001788103595652017</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RULE1190</t>
+          <t>RULE1350</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{'workinghours': '20-39', 'education': 'Bachelor Degree'}</t>
+          <t>{'workinghours': '40-49', 'age': '50-59', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4373,22 +4373,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.0125</v>
+        <v>0.012109375</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3324808184143222</v>
+        <v>0.4848966613672496</v>
       </c>
       <c r="H116" t="n">
-        <v>0.008558195685695555</v>
+        <v>0.0009878052873950355</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RULE1193</t>
+          <t>RULE1351</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Office/Administrative Support', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4407,22 +4407,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.0484375</v>
+        <v>0.01484375</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2591558883594283</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H117" t="n">
-        <v>1.224865237676127e-07</v>
+        <v>0.007814187860878499</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RULE1205</t>
+          <t>RULE1352</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'workclass': 'private'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Sales', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4441,22 +4441,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.06679687500000001</v>
+        <v>0.005859375</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9375</v>
       </c>
       <c r="G118" t="n">
-        <v>0.09729703019222213</v>
+        <v>0.6375</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0006496885411684296</v>
+        <v>0.007429741511332664</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RULE1214</t>
+          <t>RULE1365</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'marital status': 'Married'}</t>
+          <t>{'age': '60-69', 'marital status': 'Married', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.053125</v>
+        <v>0.004296875</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9379310344827586</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4881493750941123</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
-        <v>7.182920322377928e-15</v>
+        <v>0.001376339803291369</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RULE1216</t>
+          <t>RULE1366</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'marital status': 'Separated'}</t>
+          <t>{'education': 'High School or GED Diploma', 'age': '60-69', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4509,22 +4509,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.01875</v>
+        <v>0.010546875</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G120" t="n">
-        <v>0.226890756302521</v>
+        <v>0.3865079365079366</v>
       </c>
       <c r="H120" t="n">
-        <v>0.00421430768635245</v>
+        <v>0.001610600037726708</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RULE1219</t>
+          <t>RULE1376</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Office/Administrative Support'}</t>
+          <t>{'age': '60-69', 'marital status': 'Married', 'workinghours': '20-39'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.03046875</v>
+        <v>0.0125</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1670445956160241</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="H121" t="n">
-        <v>0.004522507433062725</v>
+        <v>0.007806439651260714</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RULE1220</t>
+          <t>RULE1385</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Production/Assembly'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'age': 'Older than 70'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4577,22 +4577,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.00546875</v>
+        <v>0.005078125</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.422695035460993</v>
+        <v>0.4375</v>
       </c>
       <c r="H122" t="n">
-        <v>0.00986651758130523</v>
+        <v>0.009420437630047877</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RULE1223</t>
+          <t>RULE1434</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'governmental'}</t>
+          <t>{'occupation': 'Education', 'marital status': 'Married', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.012890625</v>
+        <v>0.011328125</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4943977591036415</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H123" t="n">
-        <v>3.998298036162804e-05</v>
+        <v>0.001735971538380577</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RULE1224</t>
+          <t>RULE1438</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private'}</t>
+          <t>{'workclass': 'governmental', 'marital status': 'Married', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4645,22 +4645,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.07890625</v>
+        <v>0.0140625</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9223744292237442</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2218396698654554</v>
+        <v>0.4786184210526315</v>
       </c>
       <c r="H124" t="n">
-        <v>9.324229430387891e-09</v>
+        <v>0.0004614832547133695</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RULE1225</t>
+          <t>RULE1440</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'self employed'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '20-39', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.01015625</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H125" t="n">
-        <v>0.007369436077130307</v>
+        <v>0.005114880978556537</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RULE1227</t>
+          <t>RULE1444</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49'}</t>
+          <t>{'occupation': 'Education', 'workinghours': '40-49', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4713,22 +4713,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.0453125</v>
+        <v>0.0125</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8854961832061069</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2147644758890337</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H126" t="n">
-        <v>4.731960157683152e-05</v>
+        <v>0.001368004061167198</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RULE1229</t>
+          <t>RULE1450</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': 'More than 50'}</t>
+          <t>{'workclass': 'governmental', 'workinghours': '40-49', 'education': 'Bachelor Degree'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4747,22 +4747,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.00703125</v>
+        <v>0.01328125</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5140056022408963</v>
+        <v>0.4898989898989899</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0003453831668609258</v>
+        <v>0.0004946980586810833</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RULE1238</t>
+          <t>RULE1451</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'marital status': 'Married'}</t>
+          <t>{'workinghours': '20-39', 'education': 'Bachelor Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4781,22 +4781,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.047265625</v>
+        <v>0.010546875</v>
       </c>
       <c r="F128" t="n">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3170731707317074</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H128" t="n">
-        <v>2.019722550828607e-07</v>
+        <v>0.007559410466928984</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RULE1239</t>
+          <t>RULE1458</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{'occupation': 'Production/Assembly', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4815,22 +4815,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.008593750000000001</v>
+        <v>0.0375</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9320388349514563</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3385442110405472</v>
+        <v>0.2421654172299373</v>
       </c>
       <c r="H129" t="n">
-        <v>0.003787337190659708</v>
+        <v>2.502507611610394e-05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RULE1240</t>
+          <t>RULE1460</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4849,22 +4849,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.020703125</v>
+        <v>0.024609375</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4649470899470899</v>
+        <v>0.193233082706767</v>
       </c>
       <c r="H130" t="n">
-        <v>2.699439483499579e-06</v>
+        <v>0.004584433150780802</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RULE1243</t>
+          <t>RULE1485</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Office/Administrative Support', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4883,22 +4883,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.129296875</v>
+        <v>0.01953125</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8193069306930693</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="G131" t="n">
-        <v>0.3544951467323491</v>
+        <v>0.2767295597484277</v>
       </c>
       <c r="H131" t="n">
-        <v>2.991979471621293e-19</v>
+        <v>0.009668150979882007</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RULE1244</t>
+          <t>RULE1488</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{'workinghours': '20-39', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'governmental', 'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4917,22 +4917,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.06406249999999999</v>
+        <v>0.008203125</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9479768786127167</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1778619360839812</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H132" t="n">
-        <v>9.748434506454381e-05</v>
+        <v>0.0003761282230129017</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RULE1269</t>
+          <t>RULE1489</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'workinghours': '40-49'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4951,22 +4951,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.04140625</v>
+        <v>0.0375</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.8807339449541285</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1467349551856594</v>
+        <v>0.3466430358632194</v>
       </c>
       <c r="H133" t="n">
-        <v>0.002071975231808769</v>
+        <v>4.026369846206221e-07</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RULE1273</t>
+          <t>RULE1491</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'workclass': 'private'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.040625</v>
+        <v>0.023828125</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="G134" t="n">
-        <v>0.245405711054566</v>
+        <v>0.3306878306878307</v>
       </c>
       <c r="H134" t="n">
-        <v>4.782620217648796e-06</v>
+        <v>6.162680461381741e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RULE1326</t>
+          <t>RULE1501</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '30-39', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'marital status': 'Separated', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5019,22 +5019,22 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.010546875</v>
+        <v>0.015234375</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.2931818181818182</v>
       </c>
       <c r="H135" t="n">
-        <v>0.001029357734758524</v>
+        <v>0.001620421554184525</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RULE1329</t>
+          <t>RULE1503</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '30-39', 'workclass': 'private'}</t>
+          <t>{'workinghours': '40-49', 'marital status': 'Separated', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.012890625</v>
+        <v>0.0109375</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2205882352941176</v>
+        <v>0.3168685927306617</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0089321512705796</v>
+        <v>0.005330028365089132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RULE1350</t>
+          <t>RULE1515</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{'age': '30-39', 'workclass': 'private', 'workinghours': 'More than 50'}</t>
+          <t>{'workclass': 'governmental', 'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.004296875</v>
+        <v>0.0078125</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4966666666666666</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H137" t="n">
-        <v>0.007579456318080267</v>
+        <v>0.001897570908478955</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RULE1359</t>
+          <t>RULE1517</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '40-49', 'marital status': 'Married'}</t>
+          <t>{'workinghours': '40-49', 'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5121,22 +5121,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.01171875</v>
+        <v>0.03359375</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7169811320754718</v>
+        <v>0.1575609756097561</v>
       </c>
       <c r="H138" t="n">
-        <v>5.344228970313154e-06</v>
+        <v>0.007256172320492127</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RULE1362</t>
+          <t>RULE1531</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'age': '40-49'}</t>
+          <t>{'occupation': 'Education', 'marital status': 'Married', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5155,22 +5155,22 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.0109375</v>
+        <v>0.016796875</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.54</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0004010046566333812</v>
+        <v>0.002642906661535432</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RULE1364</t>
+          <t>RULE1536</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'age': '40-49'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '40-49', 'occupation': 'Office/Administrative Support'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5189,22 +5189,22 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.009375</v>
+        <v>0.027734375</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.1679292929292929</v>
       </c>
       <c r="H140" t="n">
-        <v>0.002157919244394069</v>
+        <v>0.00290609975824108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RULE1366</t>
+          <t>RULE1538</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'age': '40-49', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'occupation': 'Sales', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5223,22 +5223,22 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.0046875</v>
+        <v>0.016015625</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="G141" t="n">
-        <v>0.65</v>
+        <v>0.4400149031296572</v>
       </c>
       <c r="H141" t="n">
-        <v>0.005389658588057762</v>
+        <v>9.081146508271559e-05</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RULE1381</t>
+          <t>RULE1574</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{'age': '50-59', 'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
+          <t>{'occupation': 'Education', 'workinghours': '40-49', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.016796875</v>
+        <v>0.009765625</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3461805555555556</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0002871747734963858</v>
+        <v>0.008224245442378755</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RULE1383</t>
+          <t>RULE1576</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'age': '50-59', 'education': 'High School or GED Diploma'}</t>
+          <t>{'workclass': 'governmental', 'workinghours': '40-49', 'occupation': 'Office/Administrative Support'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5291,32 +5291,32 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.0171875</v>
+        <v>0.008984374999999999</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.2096774193548387</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H143" t="n">
-        <v>0.002085998586937352</v>
+        <v>0.003444848808792604</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RULE1386</t>
+          <t>RULE1585</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '50-59', 'marital status': 'Married'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5325,32 +5325,32 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.01640625</v>
+        <v>0.11484375</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5871654083733699</v>
+        <v>0.2164393674476435</v>
       </c>
       <c r="H144" t="n">
-        <v>1.886036183547474e-05</v>
+        <v>2.66645890204373e-14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RULE1390</t>
+          <t>RULE1589</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'age': '50-59'}</t>
+          <t>{'education': 'Associate Degree'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5359,32 +5359,32 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.018359375</v>
+        <v>0.013671875</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="G145" t="n">
-        <v>0.4994026284348865</v>
+        <v>0.2412280701754386</v>
       </c>
       <c r="H145" t="n">
-        <v>6.02447352273011e-05</v>
+        <v>0.004326639668128446</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RULE1392</t>
+          <t>RULE1590</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'age': '50-59'}</t>
+          <t>{'education': 'High School or GED Diploma'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5393,32 +5393,32 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.0125</v>
+        <v>0.03515625</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="G146" t="n">
-        <v>0.453100158982512</v>
+        <v>0.1655844155844156</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0009790144683048448</v>
+        <v>6.625560397262823e-05</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RULE1394</t>
+          <t>RULE1591</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'age': '50-59', 'marital status': 'Married'}</t>
+          <t>{'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5427,32 +5427,32 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.015234375</v>
+        <v>0.038671875</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.2128721859114016</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0006413875234605081</v>
+        <v>2.398508070036544e-06</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RULE1402</t>
+          <t>RULE1599</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'workinghours': '40-49', 'age': '50-59'}</t>
+          <t>{'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5461,32 +5461,32 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.013671875</v>
+        <v>0.0125</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2137096774193549</v>
       </c>
       <c r="H148" t="n">
-        <v>0.002301429432426326</v>
+        <v>0.00423248008093475</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RULE1403</t>
+          <t>RULE1602</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'workclass': 'private', 'age': '50-59'}</t>
+          <t>{'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5495,32 +5495,32 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.008203125</v>
+        <v>0.09414062500000001</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9525691699604744</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.2383697741900817</v>
       </c>
       <c r="H149" t="n">
-        <v>0.008418792038837646</v>
+        <v>9.491837964875016e-15</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RULE1407</t>
+          <t>RULE1632</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{'age': '60-69', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'occupation': 'Healthcare/Medical Services'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5529,32 +5529,32 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.004296875</v>
+        <v>0.00390625</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.5853658536585367</v>
       </c>
       <c r="H150" t="n">
-        <v>0.003569536244594763</v>
+        <v>0.003253162143307963</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RULE1408</t>
+          <t>RULE1636</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma', 'age': '60-69', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5563,32 +5563,32 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01015625</v>
+        <v>0.016015625</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="G151" t="n">
-        <v>0.3285714285714286</v>
+        <v>0.2929717669269716</v>
       </c>
       <c r="H151" t="n">
-        <v>0.00733571228344124</v>
+        <v>0.0002200870520289492</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RULE1419</t>
+          <t>RULE1643</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{'workinghours': '20-39', 'age': '60-69', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'age': '50-59'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5597,32 +5597,32 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.012109375</v>
+        <v>0.009765625</v>
       </c>
       <c r="F152" t="n">
-        <v>0.96875</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G152" t="n">
-        <v>0.3497023809523809</v>
+        <v>0.3477136354231326</v>
       </c>
       <c r="H152" t="n">
-        <v>0.004821447145606366</v>
+        <v>0.0007911840282546062</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RULE1428</t>
+          <t>RULE1650</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 70', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'age': '60-69', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5631,32 +5631,32 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.005078125</v>
+        <v>0.009765625</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5625</v>
+        <v>0.3708407871198569</v>
       </c>
       <c r="H153" t="n">
-        <v>0.002872525022217629</v>
+        <v>0.0004449740027024289</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RULE1481</t>
+          <t>RULE1672</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{'workclass': 'governmental', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'education': 'Associate Degree', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5665,32 +5665,32 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.013671875</v>
+        <v>0.011328125</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4523026315789473</v>
+        <v>0.2669755836749242</v>
       </c>
       <c r="H154" t="n">
-        <v>0.00117737205758279</v>
+        <v>0.004530469226770441</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RULE1482</t>
+          <t>RULE1680</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{'workinghours': '20-39', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5699,32 +5699,32 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.008984374999999999</v>
+        <v>0.012109375</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2584615384615384</v>
       </c>
       <c r="H155" t="n">
-        <v>0.005220976678408283</v>
+        <v>0.001421424445278727</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RULE1489</t>
+          <t>RULE1691</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'workclass': 'private', 'education': 'Bachelor Degree'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5733,32 +5733,32 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.005078125</v>
+        <v>0.02890625</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="H156" t="n">
-        <v>0.001712930369201962</v>
+        <v>0.0002993216687290474</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RULE1490</t>
+          <t>RULE1694</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'workclass': 'governmental', 'education': 'Bachelor Degree'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5767,32 +5767,32 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01328125</v>
+        <v>0.01875</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4898989898989899</v>
+        <v>0.1855345911949685</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0004946980586810833</v>
+        <v>0.001323699666160045</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RULE1498</t>
+          <t>RULE1698</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{'workclass': 'private', 'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
+          <t>{'marital status': 'Married', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5801,32 +5801,32 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.0390625</v>
+        <v>0.01015625</v>
       </c>
       <c r="F158" t="n">
-        <v>0.970873786407767</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2493547990659949</v>
+        <v>0.3649425287356322</v>
       </c>
       <c r="H158" t="n">
-        <v>2.175528146825963e-06</v>
+        <v>0.0002016876913661959</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RULE1500</t>
+          <t>RULE1707</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{'workinghours': '40-49', 'education': 'High School or GED Diploma', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5835,32 +5835,32 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.026171875</v>
+        <v>0.03359375</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9571428571428572</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1977443609022557</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0008923928480183739</v>
+        <v>1.129657819951256e-06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RULE1533</t>
+          <t>RULE1710</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'occupation': 'Office/Administrative Support', 'marital status': 'Married'}</t>
+          <t>{'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5869,32 +5869,32 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.0203125</v>
+        <v>0.01875</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.96</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4255765199161425</v>
+        <v>0.2352293577981651</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0002118427754924347</v>
+        <v>0.0005399709735476669</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RULE1536</t>
+          <t>RULE1722</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'governmental', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'marital status': 'Married'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5903,32 +5903,32 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.008203125</v>
+        <v>0.026953125</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="G161" t="n">
-        <v>0.696969696969697</v>
+        <v>0.3288192549616566</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0002439521626968172</v>
+        <v>9.55300663436439e-08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RULE1537</t>
+          <t>RULE1738</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'marital status': 'Separated'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5937,32 +5937,32 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.0390625</v>
+        <v>0.012890625</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9174311926605505</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4572039199332778</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="H162" t="n">
-        <v>2.10689863832366e-10</v>
+        <v>0.002907322779709487</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RULE1539</t>
+          <t>RULE1752</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '20-39', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5971,32 +5971,32 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.0203125</v>
+        <v>0.005078125</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1764705882352942</v>
+        <v>0.6187888198757765</v>
       </c>
       <c r="H163" t="n">
-        <v>0.004053447427326735</v>
+        <v>2.539320246497065e-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RULE1540</t>
+          <t>RULE1760</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'marital status': 'Married'}</t>
+          <t>{'workclass': 'private', 'occupation': 'Sales'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6005,32 +6005,32 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.025</v>
+        <v>0.012109375</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.4031746031746032</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="H164" t="n">
-        <v>1.134185972773199e-06</v>
+        <v>0.006695650214288443</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RULE1566</t>
+          <t>RULE1776</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'workclass': 'governmental'}</t>
+          <t>{'workclass': 'private', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6039,32 +6039,32 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.007421875</v>
+        <v>0.051953125</v>
       </c>
       <c r="F165" t="n">
-        <v>0.95</v>
+        <v>0.9300699300699301</v>
       </c>
       <c r="G165" t="n">
-        <v>0.4954545454545454</v>
+        <v>0.2520479520479521</v>
       </c>
       <c r="H165" t="n">
-        <v>0.002778774935612058</v>
+        <v>5.756637111474727e-09</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RULE1568</t>
+          <t>RULE1835</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'workclass': 'private'}</t>
+          <t>{'age': '30-39', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6073,32 +6073,32 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.03359375</v>
+        <v>0.001953125</v>
       </c>
       <c r="F166" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1624390243902439</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H166" t="n">
-        <v>0.005921332761483632</v>
+        <v>0.004000873405594594</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RULE1584</t>
+          <t>RULE1844</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'workclass': 'governmental', 'marital status': 'Married'}</t>
+          <t>{'age': '30-39', 'workinghours': '40-49', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6107,32 +6107,32 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.008593750000000001</v>
+        <v>0.0171875</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H167" t="n">
-        <v>0.003592159326413273</v>
+        <v>0.001478588407739243</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RULE1585</t>
+          <t>RULE1866</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'marital status': 'Married', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6141,32 +6141,32 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.0359375</v>
+        <v>0.00703125</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1846057571964956</v>
+        <v>0.3714521906861393</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0009708118924990234</v>
+        <v>0.002748105633335195</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RULE1587</t>
+          <t>RULE1887</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{'occupation': 'Office/Administrative Support', 'workinghours': '40-49', 'marital status': 'Married'}</t>
+          <t>{'age': '40-49', 'workinghours': 'More than 50', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6175,32 +6175,32 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.028125</v>
+        <v>0.0015625</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.303030303030303</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H169" t="n">
-        <v>1.632204822504527e-05</v>
+        <v>0.005587149890395167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RULE1589</t>
+          <t>RULE1929</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{'occupation': 'Production/Assembly', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'age': '60-69', 'workinghours': '40-49', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6209,32 +6209,32 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.00703125</v>
+        <v>0.00546875</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G170" t="n">
-        <v>0.3402255639097744</v>
+        <v>0.4289085545722714</v>
       </c>
       <c r="H170" t="n">
-        <v>0.00831546050953021</v>
+        <v>0.003813230964065664</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RULE1591</t>
+          <t>RULE1994</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{'occupation': 'Sales', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'marital status': 'Married', 'workinghours': '40-49'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6243,32 +6243,32 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.0171875</v>
+        <v>0.008593750000000001</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.540983606557377</v>
+        <v>0.2541436464088398</v>
       </c>
       <c r="H171" t="n">
-        <v>1.432211346841533e-06</v>
+        <v>0.00828004609918179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RULE1598</t>
+          <t>RULE2022</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>{'sex': 'Female', 'race': 'White alone'}</t>
+          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{'workinghours': '20-39', 'workclass': 'private', 'marital status': 'Married'}</t>
+          <t>{'education': 'High School or GED Diploma', 'workinghours': '40-49', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6277,22 +6277,22 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.05</v>
+        <v>0.015234375</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.157843137254902</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="H172" t="n">
-        <v>0.002769911547951098</v>
+        <v>0.006963757203474611</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RULE1633</t>
+          <t>RULE2031</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6311,22 +6311,22 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.1140625</v>
+        <v>0.008203125</v>
       </c>
       <c r="F173" t="n">
-        <v>0.906832298136646</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.2281012883064405</v>
+        <v>0.3598484848484849</v>
       </c>
       <c r="H173" t="n">
-        <v>4.276438162232114e-15</v>
+        <v>0.0009697788527767855</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RULE1635</t>
+          <t>RULE2032</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{'age': '30-39'}</t>
+          <t>{'marital status': 'Married', 'workinghours': '40-49', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6345,22 +6345,22 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.028125</v>
+        <v>0.008593750000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2355769230769231</v>
+        <v>0.3879781420765027</v>
       </c>
       <c r="H174" t="n">
-        <v>6.618799318137302e-05</v>
+        <v>0.0004712058560643667</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RULE1637</t>
+          <t>RULE2064</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{'education': 'High School or GED Diploma'}</t>
+          <t>{'workinghours': '40-49', 'workclass': 'private', 'education': 'Started College, No Diploma'}</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6379,22 +6379,22 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.03515625</v>
+        <v>0.016796875</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9890109890109891</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1323676323676324</v>
+        <v>0.2862595419847328</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0004870705799146088</v>
+        <v>8.474203697590382e-05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RULE1638</t>
+          <t>RULE2078</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{'education': 'Started College, No Diploma'}</t>
+          <t>{'marital status': 'Married', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6413,22 +6413,22 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.0390625</v>
+        <v>0.001953125</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9803921568627451</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.2427378358750908</v>
+        <v>0.7669172932330828</v>
       </c>
       <c r="H176" t="n">
-        <v>1.514882726001741e-07</v>
+        <v>0.0002900564092156603</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RULE1643</t>
+          <t>RULE2089</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{'occupation': 'Healthcare/Medical Services'}</t>
+          <t>{'workinghours': 'More than 50', 'marital status': 'Married', 'workclass': 'private'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6447,1308 +6447,16 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.016015625</v>
+        <v>0.0015625</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9318181818181818</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.3048751766368346</v>
+        <v>0.7128205128205128</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0002861606624837617</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>RULE1644</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>{'occupation': 'Office/Administrative Support'}</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>0.023828125</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.1148936170212767</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.00613219558334458</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>RULE1649</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>0.09218750000000001</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.932806324110672</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.2318999796997958</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2.319068494706349e-13</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>RULE1650</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>{'workinghours': '20-39'}</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>0.0359375</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.005285880695223872</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>RULE1668</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>{'age': '30-39', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>0.0109375</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.3385941644562335</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.0004718286782987308</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>RULE1676</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>{'age': '30-39', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>0.024609375</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.9264705882352942</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.2329222011385199</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.0002278666209408613</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>RULE1678</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'age': '30-39'}</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>0.019921875</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.9272727272727272</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.2512727272727272</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.0004517371640117831</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>RULE1681</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'age': '40-49'}</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>0.00703125</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.3853211009174312</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.002035452108528691</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>RULE1684</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>{'age': '40-49', 'occupation': 'Healthcare/Medical Services'}</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>0.00390625</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.5853658536585367</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.003253162143307963</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>RULE1718</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>{'marital status': 'Married', 'education': 'Associate Degree'}</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>0.005078125</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.4397163120567376</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.002738371779119043</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>RULE1724</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>{'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>0.00390625</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.552346570397112</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.000757543569856176</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>RULE1741</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>{'education': 'High School or GED Diploma', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>0.02890625</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.1143497757847534</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.00240332647117131</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>RULE1743</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>{'education': 'High School or GED Diploma', 'workinghours': '40-49'}</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>0.01875</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.008054573837612098</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>RULE1748</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>0.01015625</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.3879310344827587</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.0001010305462736062</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>RULE1758</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>0.033203125</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.9883720930232558</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.2408375762579698</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1.150264463042395e-06</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>RULE1761</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49'}</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>0.01875</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.2474617737003058</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.0003390346330557776</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>RULE1769</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>{'occupation': 'Healthcare/Medical Services', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>0.00703125</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.4251968503937008</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.0008315168472934183</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>RULE1773</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>0.027734375</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.9594594594594594</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.3813510641353361</v>
-      </c>
-      <c r="H194" t="n">
-        <v>6.22438311800831e-10</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>RULE1799</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'occupation': 'Healthcare/Medical Services'}</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>0.013671875</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.9210526315789473</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.2625160462130937</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0.002995632074840751</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>RULE1801</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'occupation': 'Healthcare/Medical Services'}</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>0.01015625</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.2963875205254516</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0.006352941596625437</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>RULE1825</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>0.05078125</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.231068931068931</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1.338115337425707e-07</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>RULE1883</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>{'age': '30-39', 'workclass': 'private', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>0.008984374999999999</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.4020618556701031</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0.0002416110668067294</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>RULE1884</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'age': '30-39', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>0.009375</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.36625</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0.000818226979537809</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>RULE1895</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>{'age': '30-39', 'workclass': 'private', 'occupation': 'Management/Business'}</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>0.001953125</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0.001324365090437709</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>RULE1906</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'age': '30-39', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>0.017578125</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.2503205128205128</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0.0009719798089652702</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>RULE1928</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'age': '40-49', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>0.00703125</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.3976302011573436</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0.001555064040795667</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>RULE1947</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'age': '50-59', 'education': 'Associate Degree'}</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>0.00234375</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0.009374768459434872</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>RULE1983</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'age': '60-69', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>0.003515625</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0.004494743257203108</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>RULE2033</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'education': 'Associate Degree', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>0.0046875</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.5137614678899083</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0.001268299808824492</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>RULE2034</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'education': 'Associate Degree', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>0.003125</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0.009809391747259028</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>RULE2046</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>0.00234375</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.6384180790960452</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0.002093084946334105</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>RULE2047</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'education': 'Bachelor Degree', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>0.003125</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.5697674418604651</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0.002112082606875568</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>RULE2103</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'workclass': 'private', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>0.008203125</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0.0004223222627496883</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>RULE2104</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>0.008593750000000001</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.3934426229508197</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0.0004128162051803106</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>RULE2134</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>{'education': 'Started College, No Diploma', 'workinghours': '40-49', 'workclass': 'private'}</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>0.01640625</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.9767441860465116</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.2630037280312444</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0.0003695265492698473</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>RULE2146</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>{'marital status': 'Married', 'workclass': 'private', 'occupation': 'Healthcare/Medical Services'}</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>0.00546875</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.3981481481481481</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0.004675935082294157</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>RULE2148</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'marital status': 'Married', 'occupation': 'Healthcare/Medical Services'}</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>0.00546875</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.4181818181818182</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0.005632934557021492</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>RULE2161</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>{'workinghours': '40-49', 'workclass': 'private', 'marital status': 'Married'}</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>0.020703125</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.9464285714285714</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.3676809433450799</v>
-      </c>
-      <c r="H214" t="n">
-        <v>3.870866473203219e-07</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>RULE2162</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female', 'race': 'Black or African American alone'}</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>{'workclass': 'private', 'marital status': 'Married', 'workinghours': 'More than 50'}</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>0.0015625</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.7794871794871795</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0.000446753119177711</v>
+        <v>0.002688953782836294</v>
       </c>
     </row>
   </sheetData>
